--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\commerce-automation\Data\My Administration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929D7C09-1417-442F-94C5-26418B129E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF58A82-54FF-401C-8C8A-CCDCC5BB9B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Subscription Recurly" sheetId="1" r:id="rId1"/>
     <sheet name="New Subscription API UI" sheetId="3" r:id="rId2"/>
     <sheet name="Array Subscription" sheetId="2" r:id="rId3"/>
+    <sheet name="Terminate Subscription" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>accountID</t>
   </si>
@@ -664,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDBC9E3-4285-40BF-AEFD-6257C7D66171}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -698,13 +699,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3">
-        <v>1940192</v>
+        <v>1940191</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>20000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -712,32 +713,32 @@
         <v>1940191</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4">
+        <v>192805</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3">
-        <v>1940191</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
+      <c r="C5" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4">
-        <v>192805</v>
+      <c r="A6" s="3">
+        <v>1940192</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +751,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -808,4 +809,42 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABB2EC1-937C-4CAF-9EB1-438DF883FF9B}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3">
+        <v>1940192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3">
+        <v>1940191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4">
+        <v>192805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\commerce-automation\Data\My Administration\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF58A82-54FF-401C-8C8A-CCDCC5BB9B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11860"/>
   </bookViews>
   <sheets>
     <sheet name="New Subscription Recurly" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="32">
   <si>
     <t>accountID</t>
   </si>
@@ -40,7 +34,7 @@
     <t>kse_per-user_monthly</t>
   </si>
   <si>
-    <t>2023-03-03T10:00:00.000Z</t>
+    <t>2023-03-07T09:00:00.000Z</t>
   </si>
   <si>
     <t>kse_per-user_annual</t>
@@ -49,24 +43,9 @@
     <t>kse_per-user_2years</t>
   </si>
   <si>
-    <t>2023-03-03T10:01:00.000Z</t>
-  </si>
-  <si>
     <t>kse_per-user_3years</t>
   </si>
   <si>
-    <t>kse_node-locked_monthly</t>
-  </si>
-  <si>
-    <t>kse_node-locked_annual</t>
-  </si>
-  <si>
-    <t>kse_floating_monthly</t>
-  </si>
-  <si>
-    <t>kse_floating_annual</t>
-  </si>
-  <si>
     <t>kre_floating_monthly</t>
   </si>
   <si>
@@ -79,10 +58,46 @@
     <t>kre_floating_3years</t>
   </si>
   <si>
-    <t>kre_node-locked_monthly</t>
-  </si>
-  <si>
-    <t>kre_node-locked_annual</t>
+    <t>testcloud_session_web_annual</t>
+  </si>
+  <si>
+    <t>testcloud_session_web_monthly</t>
+  </si>
+  <si>
+    <t>testcloud_session_web_2years</t>
+  </si>
+  <si>
+    <t>testcloud_session_web_3years</t>
+  </si>
+  <si>
+    <t>testops_platform_monthly</t>
+  </si>
+  <si>
+    <t>testops_platform_annual</t>
+  </si>
+  <si>
+    <t>testops_platform_2years</t>
+  </si>
+  <si>
+    <t>testops_platform_3years</t>
+  </si>
+  <si>
+    <t>visual_testing_pro_monthly</t>
+  </si>
+  <si>
+    <t>visual_testing_pro_annual</t>
+  </si>
+  <si>
+    <t>visual_testing_pro_2years</t>
+  </si>
+  <si>
+    <t>visual_testing_pro_3years</t>
+  </si>
+  <si>
+    <t>organizationId</t>
+  </si>
+  <si>
+    <t>planId</t>
   </si>
   <si>
     <t>testops_platform_annual, visual_testing_pro_annual</t>
@@ -98,19 +113,19 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>testops_platform_annual</t>
-  </si>
-  <si>
-    <t>visual_testing_pro_annual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,16 +133,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -135,34 +480,347 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -420,24 +1078,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.2890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -493,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -501,7 +1157,7 @@
         <v>312761</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -512,13 +1168,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>274104</v>
+        <v>274113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -526,24 +1182,24 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>274105</v>
+        <v>279007</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>283605</v>
+        <v>331968</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -554,10 +1210,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>274107</v>
+        <v>314592</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -568,13 +1224,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>274113</v>
+        <v>339089</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -582,13 +1238,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>279007</v>
+        <v>339091</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -596,10 +1252,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>331968</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>1927334</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -610,10 +1266,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>314592</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>1940121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -624,13 +1280,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>317188</v>
+        <v>1940287</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>3500</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -638,41 +1294,1121 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
+        <v>312761</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>274104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>274105</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>283605</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>274107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>1940287</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>279007</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>331968</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>314592</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>317188</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>317046</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>1940191</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>1940192</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>274113</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C28" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>279007</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>331968</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>314592</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>339089</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>339091</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>1927334</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>1940121</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>1940122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>1940123</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>1940125</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>1940127</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>1940128</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>1940130</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>339113</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>1940132</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
+        <v>1940134</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
+        <v>1940135</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDBC9E3-4285-40BF-AEFD-6257C7D66171}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.2890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>339089</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>339091</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>339113</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>312761</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:4">
+      <c r="A6" s="1">
+        <v>274113</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:4">
+      <c r="A7" s="1">
+        <v>279007</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:4">
+      <c r="A8" s="1">
+        <v>331968</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:4">
+      <c r="A9" s="1">
+        <v>314592</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>339089</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>339091</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>1927334</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>1940121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>339113</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>312761</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>274104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>274105</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>283605</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>274107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>274113</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>279007</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>331968</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>314592</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>317188</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>317046</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>1940191</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>1940192</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>274113</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>279007</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>331968</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>314592</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>339089</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>339091</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>1927334</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>1940121</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>1940122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>1940123</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>1940125</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>1940127</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>1940128</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>1940130</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>339113</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>1940132</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
+        <v>1940134</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
+        <v>1940135</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A12:A13">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:A35">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:A41 A43:A45">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="49.859375" customWidth="1"/>
+    <col min="3" max="3" width="12.4296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -691,10 +2427,10 @@
         <v>1940192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3500</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -702,96 +2438,10 @@
         <v>1940191</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3">
-        <v>1940191</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
-        <v>192805</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3">
-        <v>1940192</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3">
-        <v>1940192</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3">
-        <v>1940191</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -801,25 +2451,27 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABB2EC1-937C-4CAF-9EB1-438DF883FF9B}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
@@ -830,21 +2482,140 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
+        <v>274104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <v>274105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1">
+        <v>283605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>274107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <v>317188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <v>317046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>1940191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
         <v>1940192</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3">
-        <v>1940191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4">
-        <v>192805</v>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <v>274113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>279007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>331968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>314592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>339089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>339091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>1927334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>1940121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>1940122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>1940123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <v>1940125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>1940127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>1940128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>1940130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <v>339113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>1940132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>1940134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>1940135</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A27">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11860"/>
+    <workbookView windowWidth="28800" windowHeight="11740" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="New Subscription Recurly" sheetId="1" r:id="rId1"/>
     <sheet name="New Subscription API UI" sheetId="3" r:id="rId2"/>
     <sheet name="Array Subscription" sheetId="2" r:id="rId3"/>
     <sheet name="Terminate Subscription" sheetId="4" r:id="rId4"/>
+    <sheet name="Save Data" sheetId="5" r:id="rId5"/>
+    <sheet name="List Account" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="32">
   <si>
     <t>accountID</t>
   </si>
@@ -120,12 +122,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,11 +136,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color rgb="FF284169"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,30 +150,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,10 +181,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,7 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -217,46 +204,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +229,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +495,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,35 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -560,6 +549,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,155 +578,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -738,6 +747,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -793,7 +803,7 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -806,13 +816,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1086,7 +1089,7 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -1738,10 +1741,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1764,9 +1767,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>339089</v>
+    <row r="2" ht="14.8" spans="1:4">
+      <c r="A2" s="5">
+        <v>1927334</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>339091</v>
+        <v>1940121</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1794,7 +1797,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>339113</v>
+        <v>1940122</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1807,8 +1810,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>312761</v>
+      <c r="A5">
+        <v>1940123</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -1820,9 +1823,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" s="1">
-        <v>274113</v>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1940124</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -1834,9 +1837,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:4">
-      <c r="A7" s="1">
-        <v>279007</v>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1940125</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1848,9 +1851,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:4">
-      <c r="A8" s="1">
-        <v>331968</v>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1940127</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -1862,9 +1865,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:4">
-      <c r="A9" s="1">
-        <v>314592</v>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1940128</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1877,8 +1880,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>339089</v>
+      <c r="A10">
+        <v>1940130</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -1891,8 +1894,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>339091</v>
+      <c r="A11">
+        <v>1940132</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -1905,8 +1908,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>1927334</v>
+      <c r="A12">
+        <v>1940134</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1919,8 +1922,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>1940121</v>
+      <c r="A13">
+        <v>1940135</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1933,8 +1936,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>339113</v>
+      <c r="A14">
+        <v>1940287</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -1947,8 +1950,8 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>312761</v>
+      <c r="A15">
+        <v>1940293</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -1961,8 +1964,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>274104</v>
+      <c r="A16">
+        <v>1940294</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -1975,8 +1978,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>274105</v>
+      <c r="A17">
+        <v>1940297</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -1988,407 +1991,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>283605</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>150000</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>274107</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1">
-        <v>400000</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>274113</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1">
-        <v>900000</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>279007</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3500</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>331968</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>314592</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>317188</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1">
-        <v>70000</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>317046</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="1">
-        <v>150000</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>1940191</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1">
-        <v>400000</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>1940192</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1">
-        <v>900000</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>274113</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3500</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>279007</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>331968</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>314592</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1">
-        <v>70000</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>339089</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1">
-        <v>150000</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>339091</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="1">
-        <v>400000</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>1927334</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="1">
-        <v>900000</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>1940121</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3500</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>1940122</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>1940123</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>1940125</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="1">
-        <v>70000</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>1940127</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="1">
-        <v>150000</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>1940128</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="1">
-        <v>400000</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>1940130</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="1">
-        <v>900000</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>339113</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>1940132</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2">
-        <v>1940134</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2">
-        <v>1940135</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A12:A13">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A35">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A41 A43:A45">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A3:A4">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2451,7 +2056,7 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2465,10 +2070,708 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1">
+        <v>1940121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <v>1940122</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="4" max="4" width="28.765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>339089</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>339091</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>339113</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>312761</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:4">
+      <c r="A6" s="1">
+        <v>274113</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:4">
+      <c r="A7" s="1">
+        <v>279007</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:4">
+      <c r="A8" s="1">
+        <v>331968</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:4">
+      <c r="A9" s="1">
+        <v>314592</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>339089</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>339091</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>1927334</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>1940121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>339113</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>312761</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>274104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>274105</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>283605</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>274107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>274113</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>279007</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>331968</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>314592</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>317188</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>317046</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>1940191</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>1940192</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>274113</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>279007</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>331968</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>314592</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>339089</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>339091</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>1927334</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>1940121</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>1940122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>1940123</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>1940125</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>1940127</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>1940128</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>1940130</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>339113</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>1940132</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
+        <v>1940134</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
+        <v>1940135</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A12:A13">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:A35">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:A41 A43:A45">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2613,9 +2916,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A27">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\commerce-automation\Data\My Administration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4BE917-FC32-4DEE-A945-3EA3E04CE3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11740" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Subscription Recurly" sheetId="1" r:id="rId1"/>
@@ -120,14 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,346 +142,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -489,253 +159,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -748,62 +176,92 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -819,11 +277,51 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1081,22 +579,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.2890625" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1730,27 +1228,25 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.2890625" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1767,7 +1263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.8" spans="1:4">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="5">
         <v>1927334</v>
       </c>
@@ -1993,27 +1489,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.859375" customWidth="1"/>
-    <col min="3" max="3" width="12.4296875" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2062,21 +1554,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
@@ -2098,26 +1588,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="4" max="4" width="28.765625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2190,7 +1678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>274113</v>
       </c>
@@ -2204,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>279007</v>
       </c>
@@ -2218,7 +1706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:4">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>331968</v>
       </c>
@@ -2232,7 +1720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>314592</v>
       </c>
@@ -2752,29 +2240,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:A35">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A41 A43:A45">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
@@ -2914,11 +2400,21 @@
         <v>1940135</v>
       </c>
     </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A27">
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\commerce-automation\Data\My Administration\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4BE917-FC32-4DEE-A945-3EA3E04CE3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="16860" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="New Subscription Recurly" sheetId="1" r:id="rId1"/>
     <sheet name="New Subscription API UI" sheetId="3" r:id="rId2"/>
     <sheet name="Array Subscription" sheetId="2" r:id="rId3"/>
     <sheet name="Terminate Subscription" sheetId="4" r:id="rId4"/>
-    <sheet name="Save Data" sheetId="5" r:id="rId5"/>
-    <sheet name="List Account" sheetId="6" r:id="rId6"/>
+    <sheet name="List Account" sheetId="6" r:id="rId5"/>
+    <sheet name="Save Data" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="32">
   <si>
     <t>accountID</t>
   </si>
@@ -108,10 +102,10 @@
     <t>planId</t>
   </si>
   <si>
-    <t>testops_platform_annual, visual_testing_pro_annual</t>
+    <t>testops_platform_annual, kse_per-user_annual, visual_testing_pro_annual</t>
   </si>
   <si>
-    <t>3500, 20000</t>
+    <t>3500, 2, 20000</t>
   </si>
   <si>
     <t>kse_per-user_annual, kre_floating_annual</t>
@@ -126,8 +120,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,22 +136,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF284169"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,11 +482,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -171,29 +736,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -206,7 +804,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -216,56 +814,8 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -277,51 +827,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -579,22 +1089,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.2890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -613,7 +1123,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>339089</v>
+        <v>1940293</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -627,7 +1137,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>339091</v>
+        <v>1940294</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -641,7 +1151,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>339113</v>
+        <v>1940297</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -655,7 +1165,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>312761</v>
+        <v>1940335</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -669,7 +1179,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>274113</v>
+        <v>1940336</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -683,7 +1193,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>279007</v>
+        <v>1940337</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -697,7 +1207,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>331968</v>
+        <v>1940338</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -711,7 +1221,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>314592</v>
+        <v>1940339</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -725,7 +1235,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>339089</v>
+        <v>1940340</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -739,7 +1249,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>339091</v>
+        <v>1940341</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -753,7 +1263,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>1927334</v>
+        <v>1940342</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -767,7 +1277,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>1940121</v>
+        <v>1940343</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -781,7 +1291,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>1940287</v>
+        <v>1940344</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -879,7 +1389,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>279007</v>
+        <v>1940345</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
@@ -893,7 +1403,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>331968</v>
+        <v>1940346</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
@@ -907,7 +1417,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>314592</v>
+        <v>1940347</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
@@ -1179,7 +1689,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="1">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>5</v>
@@ -1193,7 +1703,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="1">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>5</v>
@@ -1207,7 +1717,7 @@
         <v>23</v>
       </c>
       <c r="C44" s="1">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>5</v>
@@ -1221,32 +1731,34 @@
         <v>24</v>
       </c>
       <c r="C45" s="1">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.2890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1263,9 +1775,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="5">
-        <v>1927334</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1940127</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1279,7 +1791,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1940121</v>
+        <v>1940128</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1293,7 +1805,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>1940122</v>
+        <v>1940130</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1306,8 +1818,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1940123</v>
+      <c r="A5" s="1">
+        <v>1940132</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -1320,8 +1832,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1940124</v>
+      <c r="A6" s="2">
+        <v>1940134</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -1334,8 +1846,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1940125</v>
+      <c r="A7" s="2">
+        <v>1940135</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1348,8 +1860,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
-        <v>1940127</v>
+      <c r="A8" s="2">
+        <v>1940287</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -1363,7 +1875,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1940128</v>
+        <v>1940293</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1377,7 +1889,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1940130</v>
+        <v>1940294</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -1391,7 +1903,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>1940132</v>
+        <v>1940297</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -1405,7 +1917,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1940134</v>
+        <v>1940335</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1419,7 +1931,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1940135</v>
+        <v>1940336</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1433,7 +1945,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1940287</v>
+        <v>1940337</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -1447,7 +1959,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1940293</v>
+        <v>1940338</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -1461,13 +1973,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1940294</v>
+        <v>1940339</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -1475,37 +1987,172 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1940297</v>
+        <v>1940340</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1940341</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1940342</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1940343</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1940344</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1940345</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>20000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1940346</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>20000</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1940347</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>20000</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1940348</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>20000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A9">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A25">
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.859375" customWidth="1"/>
+    <col min="3" max="3" width="12.4296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1520,8 +2167,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3">
-        <v>1940192</v>
+      <c r="A2">
+        <v>1940294</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -1531,8 +2178,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3">
-        <v>1940191</v>
+      <c r="A3">
+        <v>1940297</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>29</v>
@@ -1542,31 +2189,37 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4">
-        <v>192805</v>
+      <c r="A4">
+        <v>1940335</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A4">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1588,21 +2241,298 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1">
+        <v>274104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <v>274105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1">
+        <v>283605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>274107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <v>317188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <v>317046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>274113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>279007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <v>331968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>314592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>338335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>339089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>339091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>339113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>1927334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>1940121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>1940122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>1940123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>1940124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>1940125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>1940127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>1940128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <v>1940130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>1940132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>1940134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>1940135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1">
+        <v>1940191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1">
+        <v>1940192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2">
+        <v>1940287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>1940293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>1940294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>1940297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>1940335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>1940336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>1940337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>1940338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>1940339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>1940340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>1940341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>1940342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>1940343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>1940344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>1940345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>1940346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>1940347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>1940348</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A11 A13:A47 A49:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A11 A13:A19 A21:A29">
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D17"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
@@ -2240,181 +3170,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:A35">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A41 A43:A45">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1">
-        <v>274104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1">
-        <v>274105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1">
-        <v>283605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>274107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1">
-        <v>317188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1">
-        <v>317046</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1">
-        <v>1940191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1">
-        <v>1940192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1">
-        <v>274113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1">
-        <v>279007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1">
-        <v>331968</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1">
-        <v>314592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1">
-        <v>339089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1">
-        <v>339091</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1">
-        <v>1927334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <v>1940121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1">
-        <v>1940122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
-        <v>1940123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1">
-        <v>1940125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1">
-        <v>1940127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1">
-        <v>1940128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1">
-        <v>1940130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1">
-        <v>339113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1">
-        <v>1940132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2">
-        <v>1940134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2">
-        <v>1940135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A27">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\commerce-automation\Data\My Administration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA8D2DF-221C-4AB0-81CA-C11368B180F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16860" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Subscription Recurly" sheetId="1" r:id="rId1"/>
@@ -102,12 +108,6 @@
     <t>planId</t>
   </si>
   <si>
-    <t>testops_platform_annual, kse_per-user_annual, visual_testing_pro_annual</t>
-  </si>
-  <si>
-    <t>3500, 2, 20000</t>
-  </si>
-  <si>
     <t>kse_per-user_annual, kre_floating_annual</t>
   </si>
   <si>
@@ -115,19 +115,19 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>testops_platform_annual, visual_testing_pro_annual</t>
+  </si>
+  <si>
+    <t>3500, 20000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,346 +135,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -482,253 +152,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -736,62 +164,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -820,10 +224,231 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -832,6 +457,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1089,22 +717,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.2890625" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1738,27 +1366,25 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.2890625" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2113,46 +1739,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A9">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A25">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.859375" customWidth="1"/>
-    <col min="3" max="3" width="12.4296875" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2171,10 +1795,10 @@
         <v>1940294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2182,10 +1806,10 @@
         <v>1940297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2196,30 +1820,28 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
@@ -2241,23 +1863,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
@@ -2499,40 +2117,38 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A11 A13:A47 A49:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A11 A13:A19 A21:A29">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
@@ -3170,15 +2786,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:A35">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A41 A43:A45">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\commerce-automation\Data\My Administration\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA8D2DF-221C-4AB0-81CA-C11368B180F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="16860" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="New Subscription Recurly" sheetId="1" r:id="rId1"/>
@@ -108,6 +102,12 @@
     <t>planId</t>
   </si>
   <si>
+    <t>testops_platform_annual, kse_per-user_annual, visual_testing_pro_annual</t>
+  </si>
+  <si>
+    <t>3500, 2, 20000</t>
+  </si>
+  <si>
     <t>kse_per-user_annual, kre_floating_annual</t>
   </si>
   <si>
@@ -116,18 +116,18 @@
   <si>
     <t>8</t>
   </si>
-  <si>
-    <t>testops_platform_annual, visual_testing_pro_annual</t>
-  </si>
-  <si>
-    <t>3500, 20000</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,16 +135,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,11 +482,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -164,38 +736,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -224,231 +820,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -457,9 +832,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -717,22 +1089,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.2890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1366,25 +1738,27 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.2890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1739,44 +2113,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A9">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A25">
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.859375" customWidth="1"/>
+    <col min="3" max="3" width="12.4296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1795,10 +2171,10 @@
         <v>1940294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1806,10 +2182,10 @@
         <v>1940297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1820,28 +2196,30 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1863,19 +2241,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
@@ -2117,40 +2499,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A11 A13:A47 A49:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A11 A13:A19 A21:A29">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2786,14 +3170,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:A35">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A41 A43:A45">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16860" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="New Subscription Recurly" sheetId="1" r:id="rId1"/>
-    <sheet name="New Subscription API UI" sheetId="3" r:id="rId2"/>
-    <sheet name="Array Subscription" sheetId="2" r:id="rId3"/>
-    <sheet name="Terminate Subscription" sheetId="4" r:id="rId4"/>
-    <sheet name="List Account" sheetId="6" r:id="rId5"/>
-    <sheet name="Save Data" sheetId="5" r:id="rId6"/>
+    <sheet name="Renew" sheetId="7" r:id="rId2"/>
+    <sheet name="New Subscription API UI" sheetId="3" r:id="rId3"/>
+    <sheet name="Array Subscription" sheetId="2" r:id="rId4"/>
+    <sheet name="Terminate Subscription" sheetId="4" r:id="rId5"/>
+    <sheet name="List Account" sheetId="6" r:id="rId6"/>
+    <sheet name="Save Data" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="43">
   <si>
     <t>accountID</t>
   </si>
@@ -94,6 +95,39 @@
   </si>
   <si>
     <t>visual_testing_pro_3years</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:</t>
+  </si>
+  <si>
+    <t>00:00.000Z</t>
+  </si>
+  <si>
+    <t>kre_node-locked_annual</t>
+  </si>
+  <si>
+    <t>kse_floating_annual</t>
+  </si>
+  <si>
+    <t>01:00.000Z</t>
+  </si>
+  <si>
+    <t>kse_node-locked_annual</t>
+  </si>
+  <si>
+    <t>kre_devops_monthly</t>
+  </si>
+  <si>
+    <t>kre_devops_annual</t>
+  </si>
+  <si>
+    <t>kse_node-locked_monthly</t>
   </si>
   <si>
     <t>organizationId</t>
@@ -122,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -133,6 +167,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,22 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -181,26 +207,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,33 +223,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,6 +247,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -265,11 +292,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,7 +329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,37 +347,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,13 +401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +425,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,55 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,19 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,17 +536,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -565,9 +588,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,157 +617,160 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -791,21 +828,11 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1097,7 +1124,7 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
@@ -1749,10 +1776,535 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="23.5625" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>339089</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>E2&amp;F2</f>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>339091</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D24" si="0">E3&amp;F3</f>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>339113</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:01:00.000Z</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>312761</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>274104</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>274105</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:01:00.000Z</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>283605</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>274107</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>274107</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>274113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>274113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>274113</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>279007</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>279007</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>279007</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>314592</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>339113</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
+        <v>312761</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:01:00.000Z</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
+        <v>331968</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
+        <v>274104</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:01:00.000Z</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
+        <v>274105</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>283605</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:01:00.000Z</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>314592</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-14T05:00:00.000Z</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1763,10 +2315,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2139,7 +2691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C4"/>
@@ -2171,10 +2723,10 @@
         <v>1940294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2182,10 +2734,10 @@
         <v>1940297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2195,8 +2747,8 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A3"/>
@@ -2248,13 +2800,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2503,14 +3055,14 @@
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
     <cfRule type="duplicateValues" dxfId="1" priority="9"/>
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A11 A13:A47 A49:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
     <cfRule type="duplicateValues" dxfId="1" priority="7"/>
     <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
@@ -2523,12 +3075,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2540,10 +3092,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3170,13 +3722,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:A35">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A41 A43:A45">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="45">
   <si>
     <t>accountID</t>
   </si>
@@ -103,31 +103,37 @@
     <t>time</t>
   </si>
   <si>
-    <t>2023-03-14T05:</t>
+    <t>kse_floating_annual</t>
+  </si>
+  <si>
+    <t>2023-03-15T04:</t>
   </si>
   <si>
     <t>00:00.000Z</t>
   </si>
   <si>
+    <t>kse_node-locked_monthly</t>
+  </si>
+  <si>
+    <t>kse_floating_monthly</t>
+  </si>
+  <si>
+    <t>01:00.000Z</t>
+  </si>
+  <si>
+    <t>kse_node-locked_annual</t>
+  </si>
+  <si>
+    <t>kre_node-locked_monthly</t>
+  </si>
+  <si>
+    <t>kre_devops_monthly</t>
+  </si>
+  <si>
     <t>kre_node-locked_annual</t>
   </si>
   <si>
-    <t>kse_floating_annual</t>
-  </si>
-  <si>
-    <t>01:00.000Z</t>
-  </si>
-  <si>
-    <t>kse_node-locked_annual</t>
-  </si>
-  <si>
-    <t>kre_devops_monthly</t>
-  </si>
-  <si>
     <t>kre_devops_annual</t>
-  </si>
-  <si>
-    <t>kse_node-locked_monthly</t>
   </si>
   <si>
     <t>organizationId</t>
@@ -156,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -186,43 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -231,33 +200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,14 +224,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,18 +259,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,19 +335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,49 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,19 +389,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,25 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,31 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +547,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -571,6 +597,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,165 +620,136 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,7 +758,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1776,20 +1782,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H10"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="23.5625" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="8.4375" style="3"/>
+    <col min="2" max="2" width="23.3046875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.4375" style="3"/>
+    <col min="4" max="4" width="23.8203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.6484375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.4375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" s="3" customFormat="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1809,490 +1818,735 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" s="3" customFormat="1" spans="1:6">
       <c r="A2" s="3">
-        <v>339089</v>
+        <v>317188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>E2&amp;F2</f>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <f t="shared" ref="D2:D34" si="0">E2&amp;F2</f>
+        <v>2023-03-15T04:00:00.000Z</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="3">
+        <v>339113</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-15T04:00:00.000Z</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>339091</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D24" si="0">E3&amp;F3</f>
-        <v>2023-03-14T05:00:00.000Z</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:6">
       <c r="A4" s="3">
         <v>339113</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:01:00.000Z</v>
+        <v>2023-03-15T04:01:00.000Z</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="3">
-        <v>312761</v>
+        <v>339089</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:00:00.000Z</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:6">
+      <c r="A6" s="3">
+        <v>339089</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <v>274104</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:01:00.000Z</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:6">
       <c r="A7" s="3">
         <v>274105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:01:00.000Z</v>
+        <v>2023-03-15T04:00:00.000Z</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:6">
       <c r="A8" s="3">
-        <v>283605</v>
+        <v>274105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:01:00.000Z</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="3">
-        <v>274107</v>
+        <v>283605</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:00:00.000Z</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:6">
       <c r="A10" s="3">
-        <v>274107</v>
+        <v>283605</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:01:00.000Z</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:6">
       <c r="A11" s="3">
-        <v>274113</v>
+        <v>338335</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:00:00.000Z</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:6">
       <c r="A12" s="3">
-        <v>274113</v>
+        <v>338335</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:01:00.000Z</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="3">
-        <v>274113</v>
+        <v>317046</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:01:00.000Z</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:6">
       <c r="A14" s="3">
-        <v>279007</v>
+        <v>317046</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:00:00.000Z</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="3">
-        <v>279007</v>
+        <v>312761</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:01:00.000Z</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:6">
       <c r="A16" s="3">
-        <v>279007</v>
+        <v>312761</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:00:00.000Z</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="3">
-        <v>314592</v>
+        <v>339091</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:01:00.000Z</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:6">
       <c r="A18" s="3">
-        <v>339113</v>
+        <v>339091</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:00:00.000Z</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="3">
-        <v>312761</v>
+        <v>314592</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:01:00.000Z</v>
+        <v>2023-03-15T04:00:00.000Z</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:6">
       <c r="A20" s="3">
-        <v>331968</v>
+        <v>314592</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:01:00.000Z</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="3">
-        <v>274104</v>
+        <v>274107</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:01:00.000Z</v>
+        <v>2023-03-15T04:01:00.000Z</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:6">
       <c r="A22" s="3">
-        <v>274105</v>
+        <v>274107</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:00:00.000Z</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="3">
-        <v>283605</v>
+        <v>274113</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:01:00.000Z</v>
+        <v>2023-03-15T04:01:00.000Z</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:6">
       <c r="A24" s="3">
-        <v>314592</v>
+        <v>274113</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-14T05:00:00.000Z</v>
+        <v>2023-03-15T04:00:00.000Z</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:6">
+      <c r="A25" s="3">
+        <v>274113</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-15T04:01:00.000Z</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:6">
+      <c r="A26" s="3">
+        <v>331968</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-15T04:01:00.000Z</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:6">
+      <c r="A27" s="3">
+        <v>331968</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-15T04:00:00.000Z</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:6">
+      <c r="A28" s="3">
+        <v>331968</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-15T04:01:00.000Z</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="F28" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:6">
+      <c r="A29" s="3">
+        <v>274104</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-15T04:00:00.000Z</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:6">
+      <c r="A30" s="3">
+        <v>274104</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-15T04:01:00.000Z</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:6">
+      <c r="A31" s="3">
+        <v>274104</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-15T04:00:00.000Z</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:6">
+      <c r="A32" s="3">
+        <v>279007</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-15T04:00:00.000Z</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:6">
+      <c r="A33" s="3">
+        <v>279007</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-15T04:01:00.000Z</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:6">
+      <c r="A34" s="3">
+        <v>279007</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-03-15T04:00:00.000Z</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2315,10 +2569,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2723,10 +2977,10 @@
         <v>1940294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2734,10 +2988,10 @@
         <v>1940297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2748,7 +3002,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +3060,7 @@
   <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3092,10 +3346,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>

--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11700" activeTab="1"/>
+    <workbookView windowHeight="16860"/>
   </bookViews>
   <sheets>
     <sheet name="New Subscription Recurly" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="49">
   <si>
     <t>accountID</t>
   </si>
@@ -37,124 +37,136 @@
     <t>kse_per-user_monthly</t>
   </si>
   <si>
+    <t>2023-03-27T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>kse_per-user_annual</t>
+  </si>
+  <si>
+    <t>kse_per-user_2years</t>
+  </si>
+  <si>
+    <t>kse_per-user_3years</t>
+  </si>
+  <si>
+    <t>kre_floating_monthly</t>
+  </si>
+  <si>
+    <t>kre_floating_annual</t>
+  </si>
+  <si>
+    <t>kre_floating_2years</t>
+  </si>
+  <si>
+    <t>kre_floating_3years</t>
+  </si>
+  <si>
+    <t>testcloud_session_web_annual</t>
+  </si>
+  <si>
+    <t>testcloud_session_web_monthly</t>
+  </si>
+  <si>
+    <t>testcloud_session_web_2years</t>
+  </si>
+  <si>
+    <t>testcloud_session_web_3years</t>
+  </si>
+  <si>
+    <t>testops_platform_monthly</t>
+  </si>
+  <si>
+    <t>testops_platform_annual</t>
+  </si>
+  <si>
+    <t>testops_platform_2years</t>
+  </si>
+  <si>
+    <t>testops_platform_3years</t>
+  </si>
+  <si>
+    <t>visual_testing_pro_monthly</t>
+  </si>
+  <si>
+    <t>visual_testing_pro_annual</t>
+  </si>
+  <si>
+    <t>visual_testing_pro_2years</t>
+  </si>
+  <si>
+    <t>visual_testing_pro_3years</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>kse_floating_annual</t>
+  </si>
+  <si>
+    <t>2023-03-15T04:</t>
+  </si>
+  <si>
+    <t>00:00.000Z</t>
+  </si>
+  <si>
+    <t>kse_node-locked_monthly</t>
+  </si>
+  <si>
+    <t>kse_floating_monthly</t>
+  </si>
+  <si>
+    <t>01:00.000Z</t>
+  </si>
+  <si>
+    <t>kse_node-locked_annual</t>
+  </si>
+  <si>
+    <t>kre_node-locked_monthly</t>
+  </si>
+  <si>
+    <t>kre_devops_monthly</t>
+  </si>
+  <si>
+    <t>kre_node-locked_annual</t>
+  </si>
+  <si>
+    <t>kre_devops_annual</t>
+  </si>
+  <si>
+    <t>organizationId</t>
+  </si>
+  <si>
+    <t>planId</t>
+  </si>
+  <si>
+    <t>old_price</t>
+  </si>
+  <si>
+    <t>new_price</t>
+  </si>
+  <si>
+    <t>2023-03-27T06:00:00.000Z</t>
+  </si>
+  <si>
+    <t>testops_platform_annual, kse_per-user_annual, visual_testing_pro_annual</t>
+  </si>
+  <si>
+    <t>3500, 2, 20000</t>
+  </si>
+  <si>
+    <t>kse_per-user_annual, kre_floating_annual</t>
+  </si>
+  <si>
+    <t>3, 5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>2023-03-07T09:00:00.000Z</t>
-  </si>
-  <si>
-    <t>kse_per-user_annual</t>
-  </si>
-  <si>
-    <t>kse_per-user_2years</t>
-  </si>
-  <si>
-    <t>kse_per-user_3years</t>
-  </si>
-  <si>
-    <t>kre_floating_monthly</t>
-  </si>
-  <si>
-    <t>kre_floating_annual</t>
-  </si>
-  <si>
-    <t>kre_floating_2years</t>
-  </si>
-  <si>
-    <t>kre_floating_3years</t>
-  </si>
-  <si>
-    <t>testcloud_session_web_annual</t>
-  </si>
-  <si>
-    <t>testcloud_session_web_monthly</t>
-  </si>
-  <si>
-    <t>testcloud_session_web_2years</t>
-  </si>
-  <si>
-    <t>testcloud_session_web_3years</t>
-  </si>
-  <si>
-    <t>testops_platform_monthly</t>
-  </si>
-  <si>
-    <t>testops_platform_annual</t>
-  </si>
-  <si>
-    <t>testops_platform_2years</t>
-  </si>
-  <si>
-    <t>testops_platform_3years</t>
-  </si>
-  <si>
-    <t>visual_testing_pro_monthly</t>
-  </si>
-  <si>
-    <t>visual_testing_pro_annual</t>
-  </si>
-  <si>
-    <t>visual_testing_pro_2years</t>
-  </si>
-  <si>
-    <t>visual_testing_pro_3years</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>kse_floating_annual</t>
-  </si>
-  <si>
-    <t>2023-03-15T04:</t>
-  </si>
-  <si>
-    <t>00:00.000Z</t>
-  </si>
-  <si>
-    <t>kse_node-locked_monthly</t>
-  </si>
-  <si>
-    <t>kse_floating_monthly</t>
-  </si>
-  <si>
-    <t>01:00.000Z</t>
-  </si>
-  <si>
-    <t>kse_node-locked_annual</t>
-  </si>
-  <si>
-    <t>kre_node-locked_monthly</t>
-  </si>
-  <si>
-    <t>kre_devops_monthly</t>
-  </si>
-  <si>
-    <t>kre_node-locked_annual</t>
-  </si>
-  <si>
-    <t>kre_devops_annual</t>
-  </si>
-  <si>
-    <t>organizationId</t>
-  </si>
-  <si>
-    <t>planId</t>
-  </si>
-  <si>
-    <t>testops_platform_annual, kse_per-user_annual, visual_testing_pro_annual</t>
-  </si>
-  <si>
-    <t>3500, 2, 20000</t>
-  </si>
-  <si>
-    <t>kse_per-user_annual, kre_floating_annual</t>
-  </si>
-  <si>
-    <t>3, 5</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
 </sst>
 </file>
@@ -162,8 +174,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -176,17 +188,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,8 +234,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,84 +319,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,13 +341,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +371,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,61 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,13 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,37 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,17 +535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,17 +560,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,15 +594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -620,124 +608,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,28 +767,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -1130,8 +1139,8 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1162,7 +1171,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -1176,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1190,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1204,7 +1213,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1218,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1232,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -1246,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -1274,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -1288,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -1302,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -1784,730 +1793,730 @@
   <sheetPr/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.4375" style="3"/>
-    <col min="2" max="2" width="23.3046875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.4375" style="3"/>
-    <col min="4" max="4" width="23.8203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.6484375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.4375" style="3"/>
+    <col min="1" max="1" width="8.4375" style="1"/>
+    <col min="2" max="2" width="23.3046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4375" style="1"/>
+    <col min="4" max="4" width="23.8203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6484375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.4375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:6">
-      <c r="A2" s="3">
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="1">
         <v>317188</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="1" t="str">
         <f t="shared" ref="D2:D34" si="0">E2&amp;F2</f>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="3">
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="1">
         <v>339113</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="str">
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
-      <c r="A4" s="3">
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="1">
         <v>339113</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:6">
-      <c r="A5" s="3">
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="1">
         <v>339089</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:6">
-      <c r="A6" s="3">
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="1">
         <v>339089</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:6">
-      <c r="A7" s="3">
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="1">
         <v>274105</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:6">
-      <c r="A8" s="3">
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="1">
         <v>274105</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:6">
-      <c r="A9" s="3">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="1">
         <v>283605</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:6">
-      <c r="A10" s="3">
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="1">
         <v>283605</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:6">
-      <c r="A11" s="3">
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="1">
         <v>338335</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="str">
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:6">
-      <c r="A12" s="3">
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="1">
         <v>338335</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:6">
-      <c r="A13" s="3">
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="1">
         <v>317046</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:6">
-      <c r="A14" s="3">
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="1">
         <v>317046</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="3" t="str">
+      <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:6">
-      <c r="A15" s="3">
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="1">
         <v>312761</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:6">
-      <c r="A16" s="3">
+    <row r="16" s="1" customFormat="1" spans="1:6">
+      <c r="A16" s="1">
         <v>312761</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="3" t="str">
+      <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:6">
-      <c r="A17" s="3">
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="1">
         <v>339091</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="3" t="str">
+      <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:6">
-      <c r="A18" s="3">
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="1">
         <v>339091</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>4</v>
       </c>
-      <c r="D18" s="3" t="str">
+      <c r="D18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:6">
-      <c r="A19" s="3">
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="1">
         <v>314592</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>4</v>
       </c>
-      <c r="D19" s="3" t="str">
+      <c r="D19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:6">
-      <c r="A20" s="3">
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="1">
         <v>314592</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="3" t="str">
+      <c r="D20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:6">
-      <c r="A21" s="3">
+    <row r="21" s="1" customFormat="1" spans="1:6">
+      <c r="A21" s="1">
         <v>274107</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="D21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:6">
-      <c r="A22" s="3">
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="1">
         <v>274107</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="3" t="str">
+      <c r="D22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:6">
-      <c r="A23" s="3">
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="1">
         <v>274113</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="3" t="str">
+      <c r="D23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:6">
-      <c r="A24" s="3">
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="1">
         <v>274113</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="3" t="str">
+      <c r="D24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:6">
-      <c r="A25" s="3">
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="1">
         <v>274113</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="D25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:6">
-      <c r="A26" s="3">
+    <row r="26" s="1" customFormat="1" spans="1:6">
+      <c r="A26" s="1">
         <v>331968</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="3" t="str">
+      <c r="D26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:6">
-      <c r="A27" s="3">
+    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="A27" s="1">
         <v>331968</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="3" t="str">
+      <c r="D27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:6">
-      <c r="A28" s="3">
+    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="A28" s="1">
         <v>331968</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="D28" s="3" t="str">
+      <c r="D28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:6">
-      <c r="A29" s="3">
+    <row r="29" s="1" customFormat="1" spans="1:6">
+      <c r="A29" s="1">
         <v>274104</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="str">
+      <c r="D29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:6">
-      <c r="A30" s="3">
+    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="A30" s="1">
         <v>274104</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="3" t="str">
+      <c r="D30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:6">
-      <c r="A31" s="3">
+    <row r="31" s="1" customFormat="1" spans="1:6">
+      <c r="A31" s="1">
         <v>274104</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>3</v>
       </c>
-      <c r="D31" s="3" t="str">
+      <c r="D31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:6">
-      <c r="A32" s="3">
+    <row r="32" s="1" customFormat="1" spans="1:6">
+      <c r="A32" s="1">
         <v>279007</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="3" t="str">
+      <c r="D32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:6">
-      <c r="A33" s="3">
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="1">
         <v>279007</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:01:00.000Z</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:6">
-      <c r="A34" s="3">
+    <row r="34" s="1" customFormat="1" spans="1:6">
+      <c r="A34" s="1">
         <v>279007</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="str">
+      <c r="D34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2023-03-15T04:00:00.000Z</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2555,19 +2564,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.2890625" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="6" width="8.4375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2580,365 +2590,296 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>1940127</v>
+        <v>339089</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1">
+        <v>170</v>
+      </c>
+      <c r="F2" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>1940128</v>
+        <v>339091</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1899</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>1940130</v>
+        <v>274113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1">
+        <v>135</v>
+      </c>
+      <c r="F4" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>279007</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1499</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>339089</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1">
+        <v>139</v>
+      </c>
+      <c r="F6" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>339091</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1334</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>339113</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>312761</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1">
+        <v>98</v>
+      </c>
+      <c r="F9" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>279007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1">
+        <v>299</v>
+      </c>
+      <c r="F10" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>331968</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1">
+        <v>999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>339113</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>200</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>1940132</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
+        <v>200</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="F13" s="1">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>1940134</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>200</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1">
+        <v>28.56</v>
+      </c>
+      <c r="F14" s="1">
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>1940135</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
-        <v>1940287</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>1940293</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>1940294</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1940297</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>1940335</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>1940336</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>1940337</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3500</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>1940338</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>1940339</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3500</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>1940340</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>1940341</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3500</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>1940342</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>1940343</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3500</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>1940344</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>1940345</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>20000</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>1940346</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>20000</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>1940347</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>20000</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>1940348</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>20000</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="E15" s="1">
+        <v>42.84</v>
+      </c>
+      <c r="F15" s="1">
+        <v>42.84</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A9">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A25">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  <conditionalFormatting sqref="A13:A15">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2977,10 +2918,10 @@
         <v>1940294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2988,10 +2929,10 @@
         <v>1940297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3001,8 +2942,8 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3332,19 +3273,20 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="27.46875" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="6" width="8.4375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -3357,8 +3299,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>339089</v>
       </c>
@@ -3366,13 +3314,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1">
+        <v>170</v>
+      </c>
+      <c r="F2" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>339091</v>
       </c>
@@ -3380,13 +3334,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1899</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>339113</v>
       </c>
@@ -3394,13 +3354,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3798</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>312761</v>
       </c>
@@ -3408,13 +3374,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5697</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>274113</v>
       </c>
@@ -3422,13 +3394,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1">
+        <v>135</v>
+      </c>
+      <c r="F6" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>279007</v>
       </c>
@@ -3436,13 +3414,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1499</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>331968</v>
       </c>
@@ -3450,13 +3434,19 @@
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>314592</v>
       </c>
@@ -3467,10 +3457,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4497</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>339089</v>
       </c>
@@ -3478,13 +3474,19 @@
         <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1">
+        <v>139</v>
+      </c>
+      <c r="F10" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>339091</v>
       </c>
@@ -3492,13 +3494,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1334</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>1927334</v>
       </c>
@@ -3506,13 +3514,19 @@
         <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2668</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>1940121</v>
       </c>
@@ -3523,10 +3537,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>339113</v>
       </c>
@@ -3537,10 +3557,16 @@
         <v>3500</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>312761</v>
       </c>
@@ -3551,10 +3577,16 @@
         <v>10000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1">
+        <v>98</v>
+      </c>
+      <c r="F15" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>274104</v>
       </c>
@@ -3565,10 +3597,16 @@
         <v>30000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1">
+        <v>392</v>
+      </c>
+      <c r="F16" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>274105</v>
       </c>
@@ -3579,10 +3617,16 @@
         <v>70000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1">
+        <v>784</v>
+      </c>
+      <c r="F17" s="1">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>283605</v>
       </c>
@@ -3593,10 +3637,16 @@
         <v>150000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1569</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>274107</v>
       </c>
@@ -3607,10 +3657,16 @@
         <v>400000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3921</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>274113</v>
       </c>
@@ -3621,10 +3677,16 @@
         <v>900000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7843</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>279007</v>
       </c>
@@ -3635,10 +3697,16 @@
         <v>3500</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1">
+        <v>299</v>
+      </c>
+      <c r="F21" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>331968</v>
       </c>
@@ -3649,10 +3717,16 @@
         <v>10000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1">
+        <v>999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>314592</v>
       </c>
@@ -3663,10 +3737,16 @@
         <v>30000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>317188</v>
       </c>
@@ -3677,10 +3757,16 @@
         <v>70000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>317046</v>
       </c>
@@ -3691,10 +3777,16 @@
         <v>150000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E25" s="1">
+        <v>15999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>1940191</v>
       </c>
@@ -3705,10 +3797,16 @@
         <v>400000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1">
+        <v>39999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>1940192</v>
       </c>
@@ -3719,10 +3817,16 @@
         <v>900000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1">
+        <v>79999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>102600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>274113</v>
       </c>
@@ -3733,10 +3837,16 @@
         <v>3500</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1">
+        <v>598</v>
+      </c>
+      <c r="F28" s="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>279007</v>
       </c>
@@ -3747,10 +3857,16 @@
         <v>10000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1998</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>331968</v>
       </c>
@@ -3761,10 +3877,16 @@
         <v>30000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7998</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>314592</v>
       </c>
@@ -3775,10 +3897,16 @@
         <v>70000</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E31" s="1">
+        <v>15998</v>
+      </c>
+      <c r="F31" s="1">
+        <v>15960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>339089</v>
       </c>
@@ -3789,10 +3917,16 @@
         <v>150000</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1">
+        <v>31998</v>
+      </c>
+      <c r="F32" s="1">
+        <v>34200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>339091</v>
       </c>
@@ -3803,10 +3937,16 @@
         <v>400000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1">
+        <v>79998</v>
+      </c>
+      <c r="F33" s="1">
+        <v>91200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>1927334</v>
       </c>
@@ -3817,10 +3957,16 @@
         <v>900000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1">
+        <v>159998</v>
+      </c>
+      <c r="F34" s="1">
+        <v>205200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>1940121</v>
       </c>
@@ -3831,10 +3977,16 @@
         <v>3500</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E35" s="1">
+        <v>897</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>1940122</v>
       </c>
@@ -3845,10 +3997,16 @@
         <v>10000</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2997</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>1940123</v>
       </c>
@@ -3859,10 +4017,16 @@
         <v>30000</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E37" s="1">
+        <v>11997</v>
+      </c>
+      <c r="F37" s="1">
+        <v>10260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>1940125</v>
       </c>
@@ -3873,10 +4037,16 @@
         <v>70000</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E38" s="1">
+        <v>23997</v>
+      </c>
+      <c r="F38" s="1">
+        <v>23940</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>1940127</v>
       </c>
@@ -3887,10 +4057,16 @@
         <v>150000</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E39" s="1">
+        <v>47997</v>
+      </c>
+      <c r="F39" s="1">
+        <v>51300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>1940128</v>
       </c>
@@ -3901,10 +4077,16 @@
         <v>400000</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E40" s="1">
+        <v>119997</v>
+      </c>
+      <c r="F40" s="1">
+        <v>136800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>1940130</v>
       </c>
@@ -3915,10 +4097,16 @@
         <v>900000</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E41" s="1">
+        <v>239997</v>
+      </c>
+      <c r="F41" s="1">
+        <v>307800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>339113</v>
       </c>
@@ -3926,13 +4114,19 @@
         <v>21</v>
       </c>
       <c r="C42" s="1">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>1940132</v>
       </c>
@@ -3940,13 +4134,19 @@
         <v>22</v>
       </c>
       <c r="C43" s="1">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E43" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="F43" s="1">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>1940134</v>
       </c>
@@ -3954,13 +4154,19 @@
         <v>23</v>
       </c>
       <c r="C44" s="1">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E44" s="1">
+        <v>28.56</v>
+      </c>
+      <c r="F44" s="1">
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>1940135</v>
       </c>
@@ -3968,10 +4174,16 @@
         <v>24</v>
       </c>
       <c r="C45" s="1">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="E45" s="1">
+        <v>42.84</v>
+      </c>
+      <c r="F45" s="1">
+        <v>42.84</v>
       </c>
     </row>
   </sheetData>

--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16860"/>
+    <workbookView windowHeight="16860" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="New Subscription Recurly" sheetId="1" r:id="rId1"/>
@@ -843,11 +843,21 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1139,13 +1149,13 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.3671875" customWidth="1"/>
     <col min="2" max="2" width="34.2890625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1781,7 +1791,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1794,7 +1806,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2523,38 +2535,38 @@
   </sheetData>
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
     <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2879,7 +2891,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:A15">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2948,8 +2960,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -3247,22 +3259,22 @@
   </sheetData>
   <conditionalFormatting sqref="A12">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A11 A13:A47 A49:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A11 A13:A19 A21:A29">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3275,12 +3287,13 @@
   <sheetPr/>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
+    <col min="1" max="1" width="9.5625" customWidth="1"/>
     <col min="2" max="2" width="27.46875" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="6" width="8.4375" style="1"/>
@@ -3288,7 +3301,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -3308,7 +3321,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>339089</v>
+        <v>1940293</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3328,7 +3341,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>339091</v>
+        <v>1940294</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -3348,7 +3361,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>339113</v>
+        <v>1940297</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -3368,7 +3381,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>312761</v>
+        <v>1940335</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -3388,7 +3401,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>274113</v>
+        <v>1940336</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -3408,7 +3421,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>279007</v>
+        <v>1940337</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -3428,7 +3441,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>331968</v>
+        <v>1940338</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -3448,7 +3461,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>314592</v>
+        <v>1940339</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -3468,7 +3481,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>339089</v>
+        <v>1940340</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -3488,7 +3501,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>339091</v>
+        <v>1940341</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -3508,7 +3521,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>1927334</v>
+        <v>1940342</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -3528,7 +3541,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>1940121</v>
+        <v>1940343</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -3548,7 +3561,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>339113</v>
+        <v>1940344</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -3668,7 +3681,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>274113</v>
+        <v>1940287</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
@@ -3688,7 +3701,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>279007</v>
+        <v>1940345</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
@@ -3708,7 +3721,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>331968</v>
+        <v>1940346</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
@@ -3728,7 +3741,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>314592</v>
+        <v>1940347</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
@@ -4187,14 +4200,10 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A12:A13">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A35">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A41 A43:A45">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16860" firstSheet="1" activeTab="6"/>
+    <workbookView windowHeight="16860"/>
   </bookViews>
   <sheets>
     <sheet name="New Subscription Recurly" sheetId="1" r:id="rId1"/>
@@ -61,10 +61,10 @@
     <t>kre_floating_3years</t>
   </si>
   <si>
+    <t>testcloud_session_web_monthly</t>
+  </si>
+  <si>
     <t>testcloud_session_web_annual</t>
-  </si>
-  <si>
-    <t>testcloud_session_web_monthly</t>
   </si>
   <si>
     <t>testcloud_session_web_2years</t>
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -188,9 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,24 +203,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,8 +226,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,22 +258,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,7 +266,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,13 +288,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -304,29 +296,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,13 +347,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,13 +383,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,127 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,11 +537,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,15 +549,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +583,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -623,130 +632,121 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,19 +755,19 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,7 +776,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -843,14 +843,7 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -862,12 +855,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1149,8 +1139,8 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1287,7 +1277,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>1940340</v>
+        <v>1940341</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -1301,7 +1291,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>1940341</v>
+        <v>1940340</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -1791,9 +1781,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2534,39 +2524,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2579,7 +2569,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2694,7 +2684,7 @@
         <v>339089</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -2714,7 +2704,7 @@
         <v>339091</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -2891,7 +2881,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:A15">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2960,8 +2950,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -3000,7 +2990,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3258,24 +3248,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A11 A13:A47 A49:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A11 A13:A19 A21:A29">
-    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3287,8 +3277,8 @@
   <sheetPr/>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -3336,7 +3326,7 @@
         <v>170</v>
       </c>
       <c r="F2" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3481,7 +3471,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>1940340</v>
+        <v>1940341</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -3501,7 +3491,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>1940341</v>
+        <v>1940340</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -4201,9 +4191,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Data/My Administration/Subscription Management.xlsx
+++ b/Data/My Administration/Subscription Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16860"/>
+    <workbookView windowWidth="28800" windowHeight="11740" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="New Subscription Recurly" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="57">
   <si>
     <t>accountID</t>
   </si>
@@ -103,37 +103,61 @@
     <t>time</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>kse_node-locked_monthly</t>
+  </si>
+  <si>
+    <t>2023-03-27T09:</t>
+  </si>
+  <si>
+    <t>00:00.000Z</t>
+  </si>
+  <si>
+    <t>Script didn't support KSE node-locked monthly</t>
+  </si>
+  <si>
+    <t>kse_node-locked_annual</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>kse_floating_monthly</t>
+  </si>
+  <si>
+    <t>01:00.000Z</t>
+  </si>
+  <si>
     <t>kse_floating_annual</t>
   </si>
   <si>
-    <t>2023-03-15T04:</t>
-  </si>
-  <si>
-    <t>00:00.000Z</t>
-  </si>
-  <si>
-    <t>kse_node-locked_monthly</t>
-  </si>
-  <si>
-    <t>kse_floating_monthly</t>
-  </si>
-  <si>
-    <t>01:00.000Z</t>
-  </si>
-  <si>
-    <t>kse_node-locked_annual</t>
+    <t>kre_devops_monthly</t>
+  </si>
+  <si>
+    <t>failed (don't change)</t>
+  </si>
+  <si>
+    <t>kre_devops_annual</t>
   </si>
   <si>
     <t>kre_node-locked_monthly</t>
   </si>
   <si>
-    <t>kre_devops_monthly</t>
-  </si>
-  <si>
     <t>kre_node-locked_annual</t>
   </si>
   <si>
-    <t>kre_devops_annual</t>
+    <t>don't change because don't run script change new price new product</t>
+  </si>
+  <si>
+    <t>KSE node-locked Ko support renew qua product mới</t>
+  </si>
+  <si>
+    <t>KSE floating Ko support renew qua product mới</t>
+  </si>
+  <si>
+    <t>No need to check</t>
   </si>
   <si>
     <t>organizationId</t>
@@ -332,12 +356,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -635,103 +665,103 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -746,7 +776,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,10 +797,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,12 +810,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -1139,8 +1175,8 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1793,23 +1829,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.4375" style="1"/>
     <col min="2" max="2" width="23.3046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.4375" style="1"/>
     <col min="4" max="4" width="23.8203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.6484375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.4375" style="1"/>
+    <col min="6" max="6" width="8.4375" style="1"/>
+    <col min="7" max="7" width="8.4375" style="3"/>
+    <col min="8" max="16384" width="8.4375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1828,698 +1866,1064 @@
       <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="1">
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="3">
         <v>317188</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="str">
         <f t="shared" ref="D2:D34" si="0">E2&amp;F2</f>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="1">
-        <v>339113</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1">
-        <v>5</v>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="3">
+        <v>1927334</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="1">
-        <v>339113</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="3">
+        <v>1940121</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="1">
-        <v>339089</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1">
-        <v>2</v>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="3">
+        <v>1940122</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="1">
-        <v>339089</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="3">
+        <v>1940123</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="1">
-        <v>274105</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="3">
+        <v>1940124</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="1">
-        <v>274105</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="3">
+        <v>1940125</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="1">
-        <v>283605</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:7">
+      <c r="A9" s="3">
+        <v>1940127</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="1">
-        <v>283605</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="3">
+        <v>1940128</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="1">
-        <v>338335</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="3">
+        <v>1940130</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="1">
-        <v>338335</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="3">
+        <v>1940132</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="1">
-        <v>317046</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="3">
+        <v>1940134</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="3">
+        <v>339113</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="1">
-        <v>317046</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8</v>
+      <c r="C14" s="3">
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="1">
-        <v>312761</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="3">
+        <v>339113</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="3">
+        <v>339089</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
-      <c r="A16" s="1">
-        <v>312761</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
+      <c r="C16" s="3">
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="1">
-        <v>339091</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="3">
+        <v>339089</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="1">
-        <v>339091</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="3">
+        <v>274105</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:6">
-      <c r="A19" s="1">
-        <v>314592</v>
-      </c>
-      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1">
-        <v>4</v>
+      <c r="G18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="3">
+        <v>274105</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="1">
-        <v>314592</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="3">
+        <v>283605</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:6">
-      <c r="A21" s="1">
-        <v>274107</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1">
+        <v>35</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="3">
+        <v>283605</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:6">
-      <c r="A22" s="1">
-        <v>274107</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1">
-        <v>2</v>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="4">
+        <v>338335</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="1">
-        <v>274113</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="4">
+        <v>338335</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="1">
-        <v>274113</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:7">
+      <c r="A24" s="4">
+        <v>317046</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="1">
-        <v>274113</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="1">
+        <v>30</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:7">
+      <c r="A25" s="4">
+        <v>317046</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
-      <c r="A26" s="1">
-        <v>331968</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:7">
+      <c r="A26" s="3">
+        <v>312761</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:6">
-      <c r="A27" s="1">
-        <v>331968</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:7">
+      <c r="A27" s="3">
+        <v>312761</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="1">
-        <v>331968</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:7">
+      <c r="A28" s="3">
+        <v>339091</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="1">
-        <v>274104</v>
-      </c>
-      <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="1">
+      <c r="G28" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:7">
+      <c r="A29" s="3">
+        <v>339091</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:7">
+      <c r="A30" s="3">
+        <v>314592</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="1">
-        <v>274104</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
+      <c r="C30" s="3">
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:6">
-      <c r="A31" s="1">
-        <v>274104</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="3">
+        <v>314592</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="1">
-        <v>279007</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="1">
+        <v>30</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="3">
+        <v>274107</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="1">
-        <v>279007</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:7">
+      <c r="A33" s="3">
+        <v>274107</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:01:00.000Z</v>
+        <v>2023-03-27T09:01:00.000Z</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="1">
-        <v>279007</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:7">
+      <c r="A34" s="3">
+        <v>274113</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2023-03-15T04:00:00.000Z</v>
+        <v>2023-03-27T09:00:00.000Z</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3">
+        <v>274113</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" ref="D35:D45" si="1">E35&amp;F35</f>
+        <v>2023-03-27T09:00:00.000Z</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3">
+        <v>274113</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2023-03-27T09:00:00.000Z</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3">
+        <v>331968</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2023-03-27T09:00:00.000Z</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3">
+        <v>331968</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2023-03-27T09:00:00.000Z</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3">
+        <v>331968</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2023-03-27T09:00:00.000Z</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3">
+        <v>274104</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2023-03-27T09:00:00.000Z</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>274104</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2023-03-27T09:00:00.000Z</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>274104</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2023-03-27T09:00:00.000Z</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>279007</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2023-03-27T09:00:00.000Z</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>279007</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2023-03-27T09:00:00.000Z</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>279007</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2023-03-27T09:00:00.000Z</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2581,10 +2985,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2593,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2610,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1">
         <v>170</v>
@@ -2630,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1">
         <v>1899</v>
@@ -2650,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1">
         <v>135</v>
@@ -2670,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1">
         <v>1499</v>
@@ -2690,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1">
         <v>139</v>
@@ -2710,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
         <v>1334</v>
@@ -2730,7 +3134,7 @@
         <v>3500</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1">
         <v>29</v>
@@ -2750,7 +3154,7 @@
         <v>10000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1">
         <v>98</v>
@@ -2770,7 +3174,7 @@
         <v>3500</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1">
         <v>299</v>
@@ -2790,7 +3194,7 @@
         <v>10000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1">
         <v>999</v>
@@ -2810,7 +3214,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1">
         <v>1.4</v>
@@ -2830,7 +3234,7 @@
         <v>200</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
         <v>14.28</v>
@@ -2850,7 +3254,7 @@
         <v>200</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1">
         <v>28.56</v>
@@ -2870,7 +3274,7 @@
         <v>200</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1">
         <v>42.84</v>
@@ -2920,10 +3324,10 @@
         <v>1940294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2931,10 +3335,10 @@
         <v>1940297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2944,8 +3348,8 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>47</v>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +3682,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -3294,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3303,10 +3707,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3320,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1">
         <v>170</v>
@@ -3340,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1">
         <v>1899</v>
@@ -3360,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1">
         <v>3798</v>
@@ -3380,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1">
         <v>5697</v>
@@ -3400,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1">
         <v>135</v>
@@ -3420,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1">
         <v>1499</v>
@@ -3440,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1">
         <v>2998</v>
@@ -3460,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1">
         <v>4497</v>
@@ -3480,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1">
         <v>139</v>
@@ -3500,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1">
         <v>1334</v>
@@ -3520,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1">
         <v>2668</v>
@@ -3540,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1">
         <v>4002</v>
@@ -3560,7 +3964,7 @@
         <v>3500</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1">
         <v>29</v>
@@ -3580,7 +3984,7 @@
         <v>10000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1">
         <v>98</v>
@@ -3600,7 +4004,7 @@
         <v>30000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1">
         <v>392</v>
@@ -3620,7 +4024,7 @@
         <v>70000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1">
         <v>784</v>
@@ -3640,7 +4044,7 @@
         <v>150000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1">
         <v>1569</v>
@@ -3660,7 +4064,7 @@
         <v>400000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1">
         <v>3921</v>
@@ -3680,7 +4084,7 @@
         <v>900000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1">
         <v>7843</v>
@@ -3700,7 +4104,7 @@
         <v>3500</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1">
         <v>299</v>
@@ -3720,7 +4124,7 @@
         <v>10000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1">
         <v>999</v>
@@ -3740,7 +4144,7 @@
         <v>30000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1">
         <v>3999</v>
@@ -3760,7 +4164,7 @@
         <v>70000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1">
         <v>7999</v>
@@ -3780,7 +4184,7 @@
         <v>150000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E25" s="1">
         <v>15999</v>
@@ -3800,7 +4204,7 @@
         <v>400000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1">
         <v>39999</v>
@@ -3820,7 +4224,7 @@
         <v>900000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E27" s="1">
         <v>79999</v>
@@ -3840,7 +4244,7 @@
         <v>3500</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E28" s="1">
         <v>598</v>
@@ -3860,7 +4264,7 @@
         <v>10000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E29" s="1">
         <v>1998</v>
@@ -3880,7 +4284,7 @@
         <v>30000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E30" s="1">
         <v>7998</v>
@@ -3900,7 +4304,7 @@
         <v>70000</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E31" s="1">
         <v>15998</v>
@@ -3920,7 +4324,7 @@
         <v>150000</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1">
         <v>31998</v>
@@ -3940,7 +4344,7 @@
         <v>400000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E33" s="1">
         <v>79998</v>
@@ -3960,7 +4364,7 @@
         <v>900000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E34" s="1">
         <v>159998</v>
@@ -3980,7 +4384,7 @@
         <v>3500</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E35" s="1">
         <v>897</v>
@@ -4000,7 +4404,7 @@
         <v>10000</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E36" s="1">
         <v>2997</v>
@@ -4020,7 +4424,7 @@
         <v>30000</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E37" s="1">
         <v>11997</v>
@@ -4040,7 +4444,7 @@
         <v>70000</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E38" s="1">
         <v>23997</v>
@@ -4060,7 +4464,7 @@
         <v>150000</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E39" s="1">
         <v>47997</v>
@@ -4080,7 +4484,7 @@
         <v>400000</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E40" s="1">
         <v>119997</v>
@@ -4100,7 +4504,7 @@
         <v>900000</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E41" s="1">
         <v>239997</v>
@@ -4120,7 +4524,7 @@
         <v>200</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E42" s="1">
         <v>1.4</v>
@@ -4140,7 +4544,7 @@
         <v>200</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E43" s="1">
         <v>14.28</v>
@@ -4160,7 +4564,7 @@
         <v>200</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E44" s="1">
         <v>28.56</v>
@@ -4180,7 +4584,7 @@
         <v>200</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E45" s="1">
         <v>42.84</v>
